--- a/ProyectoPooDist/excels/clientes.xlsx
+++ b/ProyectoPooDist/excels/clientes.xlsx
@@ -154,6 +154,12 @@
       <c r="D4" t="n" s="0">
         <v>1.0</v>
       </c>
+      <c r="E4" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
@@ -180,10 +186,28 @@
       <c r="H5" t="n" s="0">
         <v>198.0</v>
       </c>
+      <c r="I5" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>150.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="C6" t="n" s="0">
         <v>2.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/clientes.xlsx
+++ b/ProyectoPooDist/excels/clientes.xlsx
@@ -160,6 +160,9 @@
       <c r="F4" t="n" s="0">
         <v>5.0</v>
       </c>
+      <c r="G4" t="n" s="0">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">

--- a/ProyectoPooDist/excels/clientes.xlsx
+++ b/ProyectoPooDist/excels/clientes.xlsx
@@ -212,6 +212,9 @@
       <c r="G6" t="n" s="0">
         <v>8.0</v>
       </c>
+      <c r="H6" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ProyectoPooDist/excels/clientes.xlsx
+++ b/ProyectoPooDist/excels/clientes.xlsx
@@ -12,26 +12,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Clientes Varios</t>
   </si>
   <si>
-    <t>Cliente por Defecto que contiene 
-La informacion de los precios generales</t>
+    <t>Cliente por Defecto 
+que contiene 
+La informacion de
+los precios generales</t>
   </si>
   <si>
     <t>Victorino</t>
   </si>
   <si>
-    <t>Cliente mayorista de Equino</t>
-  </si>
-  <si>
-    <t>Lopoldo</t>
+    <t xml:space="preserve">Cliente mayorista de Equino
+modificado 1
+</t>
+  </si>
+  <si>
+    <t>Lopoldo Lenteja</t>
   </si>
   <si>
     <t xml:space="preserve">Mayorista de alimento para ganado
+modificado
 </t>
+  </si>
+  <si>
+    <t>Mynor el Goat</t>
+  </si>
+  <si>
+    <t>Mayorista de
+alimento para 
+gallinas 
+modificado
+modificado 2
+modificado 3</t>
+  </si>
+  <si>
+    <t>cliente a eliminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente a eliminar descripcion
+modificado 1
+</t>
+  </si>
+  <si>
+    <t>Cliente de ejemplo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripcion de ejempo </t>
+  </si>
+  <si>
+    <t>cliente de ejemplo 2.1</t>
+  </si>
+  <si>
+    <t>cliente de ejemplo 2
+modificado 6</t>
   </si>
 </sst>
 </file>
@@ -76,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -163,6 +200,9 @@
       <c r="G4" t="n" s="0">
         <v>9.0</v>
       </c>
+      <c r="H4" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
@@ -214,6 +254,105 @@
       </c>
       <c r="H6" t="n" s="0">
         <v>10.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>230.0</v>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>245.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="n" s="0">
+        <v>-100.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="n" s="0">
+        <v>-100.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>190.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>231.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="n" s="0">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/clientes.xlsx
+++ b/ProyectoPooDist/excels/clientes.xlsx
@@ -306,11 +306,7 @@
         <v>245.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="C10" t="n" s="0">
-        <v>-100.0</v>
-      </c>
-    </row>
+    <row r="10"/>
     <row r="11">
       <c r="A11" t="s" s="0">
         <v>10</v>
@@ -319,11 +315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="C12" t="n" s="0">
-        <v>-100.0</v>
-      </c>
-    </row>
+    <row r="12"/>
     <row r="13">
       <c r="A13" t="s" s="0">
         <v>12</v>

--- a/ProyectoPooDist/excels/clientes.xlsx
+++ b/ProyectoPooDist/excels/clientes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Clientes Varios</t>
   </si>
@@ -39,15 +39,12 @@
 </t>
   </si>
   <si>
-    <t>Mynor el Goat</t>
+    <t>Leonardo</t>
   </si>
   <si>
     <t>Mayorista de
 alimento para 
-gallinas 
-modificado
-modificado 2
-modificado 3</t>
+gallinas</t>
   </si>
   <si>
     <t>cliente a eliminar</t>
@@ -69,6 +66,31 @@
   <si>
     <t>cliente de ejemplo 2
 modificado 6</t>
+  </si>
+  <si>
+    <t>Ingrese el nombre del cliente</t>
+  </si>
+  <si>
+    <t>Ingrese la descripción del cliente</t>
+  </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>otro cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otro cliente
+</t>
+  </si>
+  <si>
+    <t>Rigoberto Padilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente de Ponedoras </t>
   </si>
 </sst>
 </file>
@@ -113,7 +135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -203,6 +225,9 @@
       <c r="H4" t="n" s="0">
         <v>14.0</v>
       </c>
+      <c r="I4" t="n" s="0">
+        <v>-100.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
@@ -263,6 +288,9 @@
       </c>
       <c r="K6" t="n" s="0">
         <v>13.0</v>
+      </c>
+      <c r="L6" t="n" s="0">
+        <v>16.0</v>
       </c>
     </row>
     <row r="7">
@@ -306,7 +334,11 @@
         <v>245.0</v>
       </c>
     </row>
-    <row r="10"/>
+    <row r="10">
+      <c r="C10" t="n" s="0">
+        <v>-100.0</v>
+      </c>
+    </row>
     <row r="11">
       <c r="A11" t="s" s="0">
         <v>10</v>
@@ -315,7 +347,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12"/>
+    <row r="12">
+      <c r="C12" t="n" s="0">
+        <v>-100.0</v>
+      </c>
+    </row>
     <row r="13">
       <c r="A13" t="s" s="0">
         <v>12</v>
@@ -345,6 +381,96 @@
     <row r="14">
       <c r="C14" t="n" s="0">
         <v>15.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>-100.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="n" s="0">
+        <v>-100.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="n" s="0">
+        <v>-100.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="n" s="0">
+        <v>-100.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="n" s="0">
+        <v>-100.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>-100.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>188.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="n" s="0">
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/clientes.xlsx
+++ b/ProyectoPooDist/excels/clientes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Clientes Varios</t>
   </si>
@@ -44,7 +44,7 @@
   <si>
     <t>Mayorista de
 alimento para 
-gallinas</t>
+gallinas y ponedora</t>
   </si>
   <si>
     <t>cliente a eliminar</t>
@@ -91,6 +91,16 @@
   </si>
   <si>
     <t xml:space="preserve">Cliente de Ponedoras </t>
+  </si>
+  <si>
+    <t>descripcion de ejemplo</t>
+  </si>
+  <si>
+    <t>Mario Leo</t>
+  </si>
+  <si>
+    <t>Cliente mayorista de lactomayma 
+y lactomayma 22 porciento</t>
   </si>
 </sst>
 </file>
@@ -135,7 +145,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -190,6 +200,42 @@
       <c r="P1" t="n" s="0">
         <v>720.0</v>
       </c>
+      <c r="Q1" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="R1" t="n" s="0">
+        <v>166.0</v>
+      </c>
+      <c r="S1" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="T1" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="U1" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="V1" t="n" s="0">
+        <v>255.0</v>
+      </c>
+      <c r="W1" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="X1" t="n" s="0">
+        <v>235.0</v>
+      </c>
+      <c r="Y1" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="Z1" t="n" s="0">
+        <v>210.0</v>
+      </c>
+      <c r="AA1" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="AB1" t="n" s="0">
+        <v>190.0</v>
+      </c>
     </row>
     <row r="2"/>
     <row r="3">
@@ -225,9 +271,6 @@
       <c r="H4" t="n" s="0">
         <v>14.0</v>
       </c>
-      <c r="I4" t="n" s="0">
-        <v>-100.0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
@@ -319,7 +362,11 @@
         <v>230.0</v>
       </c>
     </row>
-    <row r="8"/>
+    <row r="8">
+      <c r="C8" t="n" s="0">
+        <v>20.0</v>
+      </c>
+    </row>
     <row r="9">
       <c r="A9" t="s" s="0">
         <v>8</v>
@@ -462,15 +509,62 @@
         <v>21</v>
       </c>
       <c r="C25" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="E25" t="n" s="0">
         <v>12.0</v>
       </c>
-      <c r="D25" t="n" s="0">
+      <c r="F25" t="n" s="0">
         <v>188.0</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="n" s="0">
         <v>18.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="n" s="0">
+        <v>-100.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>195.0</v>
+      </c>
+      <c r="E29" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F29" t="n" s="0">
+        <v>198.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>21.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/clientes.xlsx
+++ b/ProyectoPooDist/excels/clientes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Clientes Varios</t>
   </si>
@@ -101,6 +101,12 @@
   <si>
     <t>Cliente mayorista de lactomayma 
 y lactomayma 22 porciento</t>
+  </si>
+  <si>
+    <t>José González</t>
+  </si>
+  <si>
+    <t>Patrocinador Oficial de Distribuidora PINE</t>
   </si>
 </sst>
 </file>
@@ -145,7 +151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AB30"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -567,6 +573,15 @@
         <v>21.0</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/clientes.xlsx
+++ b/ProyectoPooDist/excels/clientes.xlsx
@@ -531,6 +531,9 @@
       <c r="C26" t="n" s="0">
         <v>18.0</v>
       </c>
+      <c r="D26" t="n" s="0">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
